--- a/DB Specification/ENCLICK_테이블 명세서_PRODUCT.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PRODUCT.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASTER\Desktop\ENCLICK 명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ENSSEL\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -20,7 +20,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
+  <x:si>
+    <x:t>※ 테스트 테이블 명세서에서 지정한 FK 모두 기록해야 합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자 ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'MARKETER_ID' </x:t>
+  </x:si>
+  <x:si>
+    <x:t>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.PRODUCT') AND type in (N'U'))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명", COL_NAME(fc.parent_object_id, fc.parent_column_id) "컬럼명"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT' </x:t>
+  </x:si>
+  <x:si>
+    <x:t>이현우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SEQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>END</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>(</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORDER BY f.name;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.11.15 / ver1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALTER TABLE 테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT PK_PRODUCT PRIMARY KEY CLUSTERED (</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'PROD_CD' </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </x:t>
+  </x:si>
   <x:si>
     <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'가격' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'PRICE' </x:t>
   </x:si>
@@ -28,169 +130,61 @@
     <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'REGI_DT' </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'PROD_ID' </x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'PROD_NM' </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자 ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'MARKETER_ID' </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품군ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'CATEGORY_ID' </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명", COL_NAME(fc.parent_object_id, fc.parent_column_id) "컬럼명"</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT' </x:t>
+    <x:t>VARCHAR(300)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>) ON [PRIMARY]</x:t>
   </x:si>
   <x:si>
     <x:t>LOGICAL NAME</x:t>
   </x:si>
   <x:si>
+    <x:t>FOREIGN KEY (</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPEN cursor1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROJECT NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE / VERSION</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ADD CONSTRAINT </x:t>
+  </x:si>
+  <x:si>
     <x:t>PHYSICAL NAME</x:t>
   </x:si>
   <x:si>
-    <x:t>DATE / VERSION</x:t>
+    <x:t>TABLE COMMENT</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">ALTER TABLE </x:t>
   </x:si>
   <x:si>
-    <x:t>OPEN cursor1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>) ON [PRIMARY]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROJECT NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TABLE COMMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ADD CONSTRAINT </x:t>
-  </x:si>
-  <x:si>
-    <x:t>FOREIGN KEY (</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(300)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SEQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>END</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT PK_PRODUCT PRIMARY KEY CLUSTERED (</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
+    <x:t>PROD_CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   WHERE OBJECT_NAME (f.referenced_object_id) = 'TEST'</x:t>
   </x:si>
   <x:si>
     <x:t>WHERE OBJECT_NAME (f.referenced_object_id) = 'PRODUCT'</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">   WHERE OBJECT_NAME (f.referenced_object_id) = 'TEST'</x:t>
-  </x:si>
-  <x:si>
     <x:t>※ 복합키를 외래키로 참조할 경우 복합키를 모두 하나의 외래키 제약조건에 같이 명시해야 합니다</x:t>
   </x:si>
   <x:si>
     <x:t>) WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.11.15 / ver1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALTER TABLE 테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ORDER BY f.name;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.PRODUCT') AND type in (N'U'))</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   GROUP BY f.name, OBJECT_NAME(f.parent_object_id)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명"</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -234,169 +228,178 @@
     <x:t>FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
   </x:si>
   <x:si>
-    <x:t>※ 테스트 테이블 명세서에서 지정한 FK 모두 기록해야 합니다.</x:t>
+    <x:t xml:space="preserve">   FROM sys.foreign_keys AS f </x:t>
+  </x:si>
+  <x:si>
+    <x:t>CATEGORY_CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   GROUP BY f.name, OBJECT_NAME(f.parent_object_id)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품군CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'CATEGORY_CD' </x:t>
+  </x:si>
+  <x:si>
+    <x:t>CATEGORY_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TABLE NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CATEGORY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COLUMN NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USE ENCLICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RECOMMEND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARKETER_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALLOW NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 제약조건 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WRITTEN BY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키 제약조건 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATABASE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFERENCES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제약조건 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DESC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UPDA_DT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EXPLAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEGIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROD_NM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매자 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EnClick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRODUCT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GROUP</x:t>
   </x:si>
   <x:si>
     <x:t>REGI_DT</x:t>
   </x:si>
   <x:si>
-    <x:t>EXPLAIN</x:t>
+    <x:t>ENCLICK</x:t>
   </x:si>
   <x:si>
     <x:t>DOMAIN</x:t>
   </x:si>
   <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BEGIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROD_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품군ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UPDA_DT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매자 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRICE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROD_NM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GROUP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제약조건 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참조컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참조테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EnClick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENCLICK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DESC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODUCT</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>RECOMMEND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CATEGORY_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COLUMN NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USE ENCLICK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALLOW NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 제약조건 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATABASE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WRITTEN BY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키 제약조건 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TABLE NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CATEGORY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REFERENCES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARKETER_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE +B15dbo.PRODUCT (</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   FROM sys.foreign_keys AS f </x:t>
+    <x:t>제품CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품군CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECLARE cursor1 CURSOR FOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK_CATEGORY_TO_PRODUCT_1</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">FROM sys.foreign_keys AS f </x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">   DROP CONSTRAINT @name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE dbo.PRODUCT (</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHILE(@@fetch_status = 0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECLARE @name varchar(100)</x:t>
+  </x:si>
+  <x:si>
     <x:t>FK_CATEGORY_ID_TO_PRODUCT_1</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">   DROP CONSTRAINT @name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DECLARE @name varchar(100)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DECLARE cursor1 CURSOR FOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHILE(@@fetch_status = 0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK_CATEGORY_TO_PRODUCT_1</x:t>
+    <x:t>DROP TABLE dbo.PRODUCT</x:t>
   </x:si>
   <x:si>
     <x:t>, @table varchar(100)</x:t>
   </x:si>
   <x:si>
+    <x:t>DROP CONSTRAINT 제약조건명</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   ALTER TABLE @table</x:t>
+  </x:si>
+  <x:si>
     <x:t>테이블 제약조건 삭제 자동문(미완성)</x:t>
   </x:si>
   <x:si>
-    <x:t>DROP CONSTRAINT 제약조건명</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   ALTER TABLE @table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DROP TABLE dbo.PRODUCT</x:t>
+    <x:t>DATETIME2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1665,8 +1668,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:N49"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A25" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G50" activeCellId="0" sqref="G50:G50"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G11" activeCellId="0" sqref="G11:G11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="11.949999999999999"/>
@@ -1689,7 +1692,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11" ht="24" customHeight="1">
       <x:c r="A1" s="40" t="s">
-        <x:v>80</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B1" s="40"/>
       <x:c r="C1" s="40"/>
@@ -1704,13 +1707,13 @@
     </x:row>
     <x:row r="2" spans="1:11" ht="15" customHeight="1">
       <x:c r="A2" s="41" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B2" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>78</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D2" s="44"/>
       <x:c r="E2" s="44"/>
@@ -1719,19 +1722,19 @@
       <x:c r="H2" s="44"/>
       <x:c r="I2" s="45"/>
       <x:c r="J2" s="20" t="s">
-        <x:v>12</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K2" s="20" t="s">
-        <x:v>50</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13" ht="15" customHeight="1">
       <x:c r="A3" s="41"/>
       <x:c r="B3" s="17" t="s">
-        <x:v>91</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C3" s="43" t="s">
-        <x:v>79</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D3" s="44"/>
       <x:c r="E3" s="44"/>
@@ -1740,22 +1743,22 @@
       <x:c r="H3" s="44"/>
       <x:c r="I3" s="45"/>
       <x:c r="J3" s="20" t="s">
-        <x:v>92</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K3" s="20" t="s">
-        <x:v>21</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="15" customHeight="1">
       <x:c r="A4" s="41"/>
       <x:c r="B4" s="17" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C4" s="43" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="C4" s="43" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="D4" s="44"/>
       <x:c r="E4" s="44"/>
@@ -1764,22 +1767,22 @@
       <x:c r="H4" s="44"/>
       <x:c r="I4" s="45"/>
       <x:c r="J4" s="20" t="s">
-        <x:v>74</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K4" s="20" t="s">
-        <x:v>79</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="15" customHeight="1">
       <x:c r="A5" s="41"/>
       <x:c r="B5" s="17" t="s">
-        <x:v>17</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C5" s="43" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D5" s="44"/>
       <x:c r="E5" s="44"/>
@@ -1790,16 +1793,16 @@
       <x:c r="J5" s="19"/>
       <x:c r="K5" s="20"/>
       <x:c r="N5" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="15" customHeight="1">
       <x:c r="A6" s="41"/>
       <x:c r="B6" s="17" t="s">
-        <x:v>61</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C6" s="42" t="s">
-        <x:v>67</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D6" s="42"/>
       <x:c r="E6" s="42"/>
@@ -1810,7 +1813,7 @@
       <x:c r="J6" s="42"/>
       <x:c r="K6" s="42"/>
       <x:c r="N6" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14">
@@ -1818,42 +1821,42 @@
       <x:c r="B7" s="1"/>
       <x:c r="C7" s="18"/>
       <x:c r="N7" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A8" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="15" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C8" s="15" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D8" s="15" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E8" s="15" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F8" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C8" s="15" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D8" s="15" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E8" s="15" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F8" s="16" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H8" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I8" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K8" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M8" s="2"/>
       <x:c r="N8" s="2" t="str">
@@ -1868,7 +1871,7 @@
         <x:v>USE ENCLICK</x:v>
       </x:c>
       <x:c r="N9" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -1885,13 +1888,13 @@
         <x:v>DROP TABLE dbo.PRODUCT</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14">
       <x:c r="A12" s="14"/>
       <x:c r="N12" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14">
@@ -1907,8 +1910,8 @@
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="14"/>
       <x:c r="B14" s="2" t="str">
-        <x:f>"CREATE TABLE +B15dbo."&amp;C4&amp;" ("</x:f>
-        <x:v>CREATE TABLE +B15dbo.PRODUCT (</x:v>
+        <x:f>"CREATE TABLE dbo."&amp;C4&amp;" ("</x:f>
+        <x:v>CREATE TABLE dbo.PRODUCT (</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14">
@@ -1916,31 +1919,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D15" s="3" t="s">
         <x:v>68</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="E15" s="3"/>
       <x:c r="F15" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G15" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H15" s="9"/>
       <x:c r="I15" s="9"/>
       <x:c r="J15" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K15" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M15" s="38" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N15" s="38"/>
     </x:row>
@@ -1949,36 +1952,36 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E16" s="3"/>
       <x:c r="F16" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G16" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="9" t="s">
-        <x:v>96</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I16" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J16" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="K16" s="13" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M16" s="38"/>
       <x:c r="N16" s="38" t="s">
-        <x:v>106</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14">
@@ -1986,26 +1989,28 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D17" s="3"/>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D17" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
       <x:c r="E17" s="3"/>
       <x:c r="F17" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G17" s="9"/>
       <x:c r="H17" s="9"/>
       <x:c r="I17" s="9"/>
       <x:c r="J17" s="13" t="s">
-        <x:v>38</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K17" s="13"/>
       <x:c r="M17" s="38"/>
       <x:c r="N17" s="38" t="s">
-        <x:v>55</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14">
@@ -2013,26 +2018,28 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D18" s="3"/>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D18" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
       <x:c r="E18" s="3"/>
       <x:c r="F18" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G18" s="9"/>
       <x:c r="H18" s="9"/>
       <x:c r="I18" s="9"/>
       <x:c r="J18" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="K18" s="13"/>
       <x:c r="M18" s="38"/>
       <x:c r="N18" s="38" t="s">
-        <x:v>101</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14">
@@ -2040,26 +2047,26 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="3"/>
       <x:c r="E19" s="3"/>
       <x:c r="F19" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G19" s="9"/>
       <x:c r="H19" s="9"/>
       <x:c r="I19" s="9"/>
       <x:c r="J19" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K19" s="13"/>
       <x:c r="M19" s="38"/>
       <x:c r="N19" s="38" t="s">
-        <x:v>83</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="14.25" customHeight="1">
@@ -2067,26 +2074,28 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D20" s="3"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D20" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
       <x:c r="E20" s="3"/>
       <x:c r="F20" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G20" s="9"/>
       <x:c r="H20" s="9"/>
       <x:c r="I20" s="9"/>
       <x:c r="J20" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K20" s="13"/>
       <x:c r="M20" s="38"/>
       <x:c r="N20" s="38" t="s">
-        <x:v>8</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="14.25" customHeight="1">
@@ -2094,26 +2103,26 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D21" s="3"/>
       <x:c r="E21" s="3"/>
       <x:c r="F21" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G21" s="9"/>
       <x:c r="H21" s="9"/>
       <x:c r="I21" s="9"/>
       <x:c r="J21" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K21" s="13"/>
       <x:c r="M21" s="38"/>
       <x:c r="N21" s="38" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="14.25" customHeight="1">
@@ -2130,7 +2139,7 @@
       <x:c r="K22" s="13"/>
       <x:c r="M22" s="38"/>
       <x:c r="N22" s="38" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14" ht="14.25" customHeight="1">
@@ -2162,7 +2171,7 @@
       <x:c r="K24" s="10"/>
       <x:c r="M24" s="38"/>
       <x:c r="N24" s="38" t="s">
-        <x:v>14</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14" ht="14.25" customHeight="1">
@@ -2194,7 +2203,7 @@
       <x:c r="K26" s="13"/>
       <x:c r="M26" s="38"/>
       <x:c r="N26" s="38" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="14.25" customHeight="1">
@@ -2211,7 +2220,7 @@
       <x:c r="K27" s="12"/>
       <x:c r="M27" s="38"/>
       <x:c r="N27" s="38" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14" ht="14.25" customHeight="1">
@@ -2243,7 +2252,7 @@
       <x:c r="K29" s="13"/>
       <x:c r="M29" s="38"/>
       <x:c r="N29" s="38" t="s">
-        <x:v>58</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="10:14" ht="14.25" customHeight="1">
@@ -2259,15 +2268,15 @@
       <x:c r="J31" s="4"/>
       <x:c r="M31" s="38"/>
       <x:c r="N31" s="38" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="3:14" ht="14.25" customHeight="1">
       <x:c r="C32" s="23" t="s">
-        <x:v>68</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E32" s="2" t="str">
         <x:f>IF(C33&lt;&gt;"",",","")</x:f>
@@ -2276,15 +2285,15 @@
       <x:c r="J32" s="4"/>
       <x:c r="M32" s="38"/>
       <x:c r="N32" s="38" t="s">
-        <x:v>66</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="3:14" ht="14.25" customHeight="1">
       <x:c r="C33" s="23" t="s">
-        <x:v>86</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J33" s="4"/>
       <x:c r="M33" s="38"/>
@@ -2319,22 +2328,22 @@
       <x:c r="J35" s="4"/>
       <x:c r="M35" s="38"/>
       <x:c r="N35" s="38" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:14" ht="14.25" customHeight="1">
       <x:c r="B36" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J36" s="4"/>
       <x:c r="M36" s="38"/>
       <x:c r="N36" s="38" t="s">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:10" ht="14.25" customHeight="1">
       <x:c r="B37" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J37" s="4"/>
     </x:row>
@@ -2354,14 +2363,14 @@
     <x:row r="41" spans="2:10" ht="14.25" customHeight="1">
       <x:c r="B41" s="2" t="str">
         <x:f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'"&amp;J15&amp;"' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'"&amp;$C$4&amp;"', @level2type=N'COLUMN',@level2name=N'"&amp;B15&amp;"' "</x:f>
-        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'PROD_ID' </x:v>
+        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'PROD_CD' </x:v>
       </x:c>
       <x:c r="J41" s="4"/>
     </x:row>
     <x:row r="42" spans="2:10" ht="14.25" customHeight="1">
       <x:c r="B42" s="2" t="str">
         <x:f t="shared" ref="B42:B47" si="1">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'"&amp;J16&amp;"' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'"&amp;$C$4&amp;"', @level2type=N'COLUMN',@level2name=N'"&amp;B16&amp;"' "</x:f>
-        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품군ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'CATEGORY_ID' </x:v>
+        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품군CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'CATEGORY_CD' </x:v>
       </x:c>
       <x:c r="J42" s="4"/>
     </x:row>
@@ -2450,7 +2459,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27.75" customHeight="1">
       <x:c r="A1" s="46" t="s">
-        <x:v>93</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B1" s="46"/>
       <x:c r="C1" s="46"/>
@@ -2460,10 +2469,10 @@
     </x:row>
     <x:row r="2" spans="1:6" ht="15" customHeight="1">
       <x:c r="A2" s="41" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B2" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C2" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$2</x:f>
@@ -2471,7 +2480,7 @@
       </x:c>
       <x:c r="D2" s="47"/>
       <x:c r="E2" s="20" t="s">
-        <x:v>12</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F2" s="20" t="str">
         <x:f>'테스트 테이블 명세서'!$K$2</x:f>
@@ -2481,7 +2490,7 @@
     <x:row r="3" spans="1:6" ht="15" customHeight="1">
       <x:c r="A3" s="41"/>
       <x:c r="B3" s="17" t="s">
-        <x:v>91</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C3" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$3</x:f>
@@ -2489,7 +2498,7 @@
       </x:c>
       <x:c r="D3" s="47"/>
       <x:c r="E3" s="20" t="s">
-        <x:v>92</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F3" s="20" t="str">
         <x:f>'테스트 테이블 명세서'!$K$3</x:f>
@@ -2499,7 +2508,7 @@
     <x:row r="4" spans="1:6" ht="15" customHeight="1">
       <x:c r="A4" s="41"/>
       <x:c r="B4" s="17" t="s">
-        <x:v>94</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C4" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
@@ -2507,7 +2516,7 @@
       </x:c>
       <x:c r="D4" s="47"/>
       <x:c r="E4" s="20" t="s">
-        <x:v>74</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F4" s="20" t="str">
         <x:f>'테스트 테이블 명세서'!$K$4</x:f>
@@ -2517,7 +2526,7 @@
     <x:row r="5" spans="1:6" ht="15" customHeight="1">
       <x:c r="A5" s="41"/>
       <x:c r="B5" s="17" t="s">
-        <x:v>17</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C5" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$5</x:f>
@@ -2530,7 +2539,7 @@
     <x:row r="6" spans="1:6" ht="15" customHeight="1">
       <x:c r="A6" s="41"/>
       <x:c r="B6" s="17" t="s">
-        <x:v>61</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C6" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$6</x:f>
@@ -2542,30 +2551,30 @@
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" ht="19.5" customHeight="1">
       <x:c r="A8" s="24" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="22" t="s">
-        <x:v>11</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C8" s="24" t="s">
-        <x:v>62</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D8" s="34" t="s">
-        <x:v>87</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2573,13 +2582,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -2620,24 +2629,24 @@
     </x:row>
     <x:row r="17" spans="2:8" ht="12.75" customHeight="1">
       <x:c r="B17" s="26" t="s">
-        <x:v>13</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C17" s="27" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>PRODUCT</x:v>
       </x:c>
       <x:c r="D17" s="27" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E17" s="36" t="str">
         <x:f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</x:f>
         <x:v>FK_CATEGORY_TO_PRODUCT_1</x:v>
       </x:c>
       <x:c r="F17" s="28" t="s">
-        <x:v>19</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H17" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:6" ht="12.75" customHeight="1">
@@ -2654,20 +2663,20 @@
     </x:row>
     <x:row r="19" spans="2:6" ht="12.75" customHeight="1">
       <x:c r="B19" s="29" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F19" s="30"/>
     </x:row>
     <x:row r="20" spans="2:6" ht="12.75" customHeight="1">
       <x:c r="B20" s="29" t="s">
-        <x:v>97</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C20" s="25" t="str">
         <x:f>C9</x:f>
         <x:v>CATEGORY</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F20" s="30"/>
     </x:row>
@@ -2685,7 +2694,7 @@
     </x:row>
     <x:row r="22" spans="2:6" ht="12.75" customHeight="1">
       <x:c r="B22" s="31" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="32"/>
       <x:c r="D22" s="32"/>
@@ -2694,24 +2703,24 @@
     </x:row>
     <x:row r="24" spans="2:8">
       <x:c r="B24" s="26" t="s">
-        <x:v>13</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C24" s="27" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>PRODUCT</x:v>
       </x:c>
       <x:c r="D24" s="27" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E24" s="36" t="str">
         <x:f>"FK"&amp;"_"&amp;C18&amp;"_TO_"&amp;C24&amp;"_1"</x:f>
         <x:v>FK_CATEGORY_ID_TO_PRODUCT_1</x:v>
       </x:c>
       <x:c r="F24" s="28" t="s">
-        <x:v>19</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H24" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:6">
@@ -2740,20 +2749,20 @@
     </x:row>
     <x:row r="27" spans="2:6">
       <x:c r="B27" s="29" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F27" s="30"/>
     </x:row>
     <x:row r="28" spans="2:6">
       <x:c r="B28" s="29" t="s">
-        <x:v>97</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C28" s="25">
         <x:f>C10</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F28" s="30"/>
     </x:row>
@@ -2783,7 +2792,7 @@
     </x:row>
     <x:row r="31" spans="2:6">
       <x:c r="B31" s="31" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C31" s="32"/>
       <x:c r="D31" s="32"/>
@@ -2792,18 +2801,18 @@
     </x:row>
     <x:row r="34" spans="2:6">
       <x:c r="B34" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C34" s="2" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>PRODUCT</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="3:4">
@@ -2815,16 +2824,16 @@
     </x:row>
     <x:row r="36" spans="2:2">
       <x:c r="B36" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:4">
       <x:c r="B37" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C37" s="25"/>
       <x:c r="D37" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="3:4">
@@ -2836,7 +2845,7 @@
     </x:row>
     <x:row r="39" spans="2:2">
       <x:c r="B39" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DB Specification/ENCLICK_테이블 명세서_PRODUCT.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PRODUCT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\workspace\Enclick\EnClick-DOCU\DB Specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ENSSEL\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAF8A0A-0925-4A3B-BFB1-DC19F585A482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360C25A-C22D-4AF4-9E2A-A2A1CD43D453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="504" yWindow="684" windowWidth="21600" windowHeight="11772" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>※ 테스트 테이블 명세서에서 지정한 FK 모두 기록해야 합니다.</t>
   </si>
@@ -233,9 +233,6 @@
     <t>RECOMMEND</t>
   </si>
   <si>
-    <t>MARKETER_ID</t>
-  </si>
-  <si>
     <t>ALLOW NULL</t>
   </si>
   <si>
@@ -354,6 +351,25 @@
   </si>
   <si>
     <t>CATEGORY_CD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELLER_ID</t>
+  </si>
+  <si>
+    <t>SELLER_ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1242,31 +1258,31 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A10" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.19921875" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="3.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.8984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -1279,15 +1295,15 @@
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
@@ -1302,13 +1318,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="39"/>
       <c r="B3" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -1317,22 +1333,22 @@
       <c r="H3" s="42"/>
       <c r="I3" s="43"/>
       <c r="J3" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="39"/>
       <c r="B4" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
@@ -1341,16 +1357,16 @@
       <c r="H4" s="42"/>
       <c r="I4" s="43"/>
       <c r="J4" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="39"/>
       <c r="B5" s="16" t="s">
         <v>36</v>
@@ -1367,16 +1383,16 @@
       <c r="J5" s="18"/>
       <c r="K5" s="16"/>
       <c r="N5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="39"/>
       <c r="B6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>74</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
@@ -1390,13 +1406,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" s="17"/>
       <c r="N7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1404,13 +1420,13 @@
         <v>35</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>8</v>
@@ -1419,7 +1435,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>55</v>
@@ -1436,7 +1452,7 @@
         <v>WHERE OBJECT_NAME (f.referenced_object_id) = 'PRODUCT'</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="13"/>
       <c r="B9" s="1" t="str">
         <f>"USE "&amp;C3</f>
@@ -1446,47 +1462,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="13"/>
       <c r="B10" s="1" t="str">
         <f>"IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo."&amp;C4&amp;"') AND type in (N'U'))"</f>
         <v>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.PRODUCT') AND type in (N'U'))</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
       <c r="B11" s="1" t="str">
         <f>"DROP TABLE dbo."&amp;C4</f>
         <v>DROP TABLE dbo.PRODUCT</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
       <c r="B13" s="1" t="str">
         <f>"USE "&amp;C3</f>
         <v>USE ENCLICK</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" s="1" t="str">
         <f>"CREATE TABLE dbo."&amp;C4&amp;" ("</f>
         <v>CREATE TABLE dbo.PRODUCT (</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>1</v>
       </c>
@@ -1494,7 +1510,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>56</v>
@@ -1509,17 +1525,17 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -1527,7 +1543,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>56</v>
@@ -1546,22 +1562,22 @@
         <v>52</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -1585,15 +1601,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>56</v>
@@ -1602,11 +1618,17 @@
       <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="J18" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" s="12"/>
       <c r="M18" s="36"/>
@@ -1614,12 +1636,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -1641,15 +1663,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>56</v>
@@ -1670,15 +1692,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1697,7 +1719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1714,7 +1736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1729,7 +1751,7 @@
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1746,7 +1768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1761,7 +1783,7 @@
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1775,10 +1797,10 @@
       <c r="K26" s="12"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1792,10 +1814,10 @@
       <c r="K27" s="11"/>
       <c r="M27" s="36"/>
       <c r="N27" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1810,7 +1832,7 @@
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1827,12 +1849,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J30" s="3"/>
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="str">
         <f>"CONSTRAINT PK_"&amp;C4&amp;" PRIMARY KEY CLUSTERED ("</f>
         <v>CONSTRAINT PK_PRODUCT PRIMARY KEY CLUSTERED (</v>
@@ -1840,10 +1862,10 @@
       <c r="J31" s="3"/>
       <c r="M31" s="36"/>
       <c r="N31" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="21" t="s">
         <v>38</v>
       </c>
@@ -1857,18 +1879,18 @@
       <c r="J32" s="3"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C33" s="21"/>
       <c r="J33" s="3"/>
       <c r="M33" s="36"/>
       <c r="N33" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D34" s="1" t="str">
         <f>IF(C34&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1880,10 +1902,10 @@
       <c r="J34" s="3"/>
       <c r="M34" s="36"/>
       <c r="N34" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" s="1" t="str">
         <f>IF(C35&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1898,7 +1920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1908,81 +1930,81 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'"&amp;$C$5&amp;"' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'"&amp;$C$4&amp;"' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT' </v>
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'"&amp;J15&amp;"' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'"&amp;$C$4&amp;"', @level2type=N'COLUMN',@level2name=N'"&amp;B15&amp;"' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'PROD_CD' </v>
       </c>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="str">
         <f t="shared" ref="B42:B47" si="1">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'"&amp;J16&amp;"' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'"&amp;$C$4&amp;"', @level2type=N'COLUMN',@level2name=N'"&amp;B16&amp;"' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품군CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'CATEGORY_CD' </v>
       </c>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'PROD_NM' </v>
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자 ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'MARKETER_ID' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자 ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'SELLER_ID' </v>
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'가격' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'PRICE' </v>
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'REGI_DT' </v>
       </c>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </v>
       </c>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:K1"/>
@@ -2004,19 +2026,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.8984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
@@ -2025,9 +2047,9 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -2035,9 +2057,9 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>32</v>
@@ -2055,10 +2077,10 @@
         <v>2023.11.15 / ver1.0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="39"/>
       <c r="B3" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="45" t="str">
         <f>'테스트 테이블 명세서'!$C$3</f>
@@ -2066,14 +2088,14 @@
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="16" t="str">
         <f>'테스트 테이블 명세서'!$K$3</f>
         <v>이현우</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="39"/>
       <c r="B4" s="16" t="s">
         <v>53</v>
@@ -2084,14 +2106,14 @@
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="16" t="str">
         <f>'테스트 테이블 명세서'!$K$4</f>
         <v>ENCLICK</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="39"/>
       <c r="B5" s="16" t="s">
         <v>36</v>
@@ -2104,10 +2126,10 @@
       <c r="E5" s="18"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="39"/>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="45" t="str">
         <f>'테스트 테이블 명세서'!$C$6</f>
@@ -2117,18 +2139,18 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2158,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>55</v>
@@ -2145,57 +2167,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="23">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="23"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="23"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="23"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="23"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="23"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="23"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="24" t="s">
         <v>37</v>
       </c>
@@ -2217,7 +2245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="27"/>
       <c r="C18" s="21" t="str">
         <f>B9</f>
@@ -2229,15 +2257,15 @@
       </c>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="23" t="str">
         <f>C9</f>
@@ -2248,7 +2276,7 @@
       </c>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="27"/>
       <c r="C21" s="33" t="str">
         <f>D9</f>
@@ -2260,7 +2288,7 @@
       </c>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="29" t="s">
         <v>20</v>
       </c>
@@ -2269,7 +2297,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="24" t="s">
         <v>37</v>
       </c>
@@ -2291,11 +2319,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="27"/>
-      <c r="C25" s="21">
+      <c r="C25" s="21" t="str">
         <f>B10</f>
-        <v>0</v>
+        <v>SELLER_ID</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>IF(C26&lt;&gt;"",",","")</f>
@@ -2303,7 +2331,7 @@
       </c>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="27"/>
       <c r="C26" s="21">
         <f>B11</f>
@@ -2315,30 +2343,30 @@
       </c>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="23">
+        <v>64</v>
+      </c>
+      <c r="C28" s="23" t="str">
         <f>C10</f>
-        <v>0</v>
+        <v>USER</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="27"/>
-      <c r="C29" s="33">
+      <c r="C29" s="33" t="str">
         <f>D10</f>
-        <v>0</v>
+        <v>USER_ID</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>IF(C30&lt;&gt;"",",","")</f>
@@ -2346,7 +2374,7 @@
       </c>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="27"/>
       <c r="C30" s="33">
         <f>D11</f>
@@ -2358,7 +2386,7 @@
       </c>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="29" t="s">
         <v>20</v>
       </c>
@@ -2367,7 +2395,7 @@
       <c r="E31" s="30"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2383,35 +2411,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C35" s="21"/>
       <c r="D35" s="1" t="str">
         <f>IF(C36&lt;&gt;"",",","")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C38" s="33"/>
       <c r="D38" s="1" t="str">
         <f>IF(C39&lt;&gt;"",",","")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>20</v>
       </c>

--- a/DB Specification/ENCLICK_테이블 명세서_PRODUCT.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PRODUCT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ENSSEL\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360C25A-C22D-4AF4-9E2A-A2A1CD43D453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7401B87B-68EB-4C04-B830-2287F81C9D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="684" windowWidth="21600" windowHeight="11772" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>※ 테스트 테이블 명세서에서 지정한 FK 모두 기록해야 합니다.</t>
   </si>
@@ -293,9 +293,6 @@
     <t>PROD_NM</t>
   </si>
   <si>
-    <t>판매자 ID</t>
-  </si>
-  <si>
     <t>EnClick</t>
   </si>
   <si>
@@ -358,18 +355,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>SELLER_ID</t>
-  </si>
-  <si>
-    <t>SELLER_ID</t>
+    <t>SELLER</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>USER</t>
+    <t>SELLER_UUID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>USER_ID</t>
+    <t>판매자 UUID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1258,8 +1252,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A7" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1303,7 +1297,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
@@ -1324,7 +1318,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -1348,7 +1342,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
@@ -1357,10 +1351,10 @@
       <c r="H4" s="42"/>
       <c r="I4" s="43"/>
       <c r="J4" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>1</v>
@@ -1383,7 +1377,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="16"/>
       <c r="N5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1435,7 +1429,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>55</v>
@@ -1492,7 +1486,7 @@
         <v>USE ENCLICK</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -1525,13 +1519,13 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N15" s="36"/>
     </row>
@@ -1562,14 +1556,14 @@
         <v>52</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
@@ -1606,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>62</v>
@@ -1619,16 +1613,16 @@
         <v>5</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="I18" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="K18" s="12"/>
       <c r="M18" s="36"/>
@@ -1668,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>56</v>
@@ -1700,7 +1694,7 @@
         <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1797,7 +1791,7 @@
       <c r="K26" s="12"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1814,7 +1808,7 @@
       <c r="K27" s="11"/>
       <c r="M27" s="36"/>
       <c r="N27" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1862,7 +1856,7 @@
       <c r="J31" s="3"/>
       <c r="M31" s="36"/>
       <c r="N31" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1887,7 +1881,7 @@
       <c r="J33" s="3"/>
       <c r="M33" s="36"/>
       <c r="N33" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1902,7 +1896,7 @@
       <c r="J34" s="3"/>
       <c r="M34" s="36"/>
       <c r="N34" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1973,7 +1967,7 @@
     <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자 ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'SELLER_ID' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'판매자 UUID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT', @level2type=N'COLUMN',@level2name=N'SELLER_UUID' </v>
       </c>
       <c r="J44" s="3"/>
     </row>
@@ -2026,8 +2020,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2106,7 +2100,7 @@
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="16" t="str">
         <f>'테스트 테이블 명세서'!$K$4</f>
@@ -2158,7 +2152,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>55</v>
@@ -2172,13 +2166,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2187,10 +2181,10 @@
         <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2323,7 +2317,7 @@
       <c r="B25" s="27"/>
       <c r="C25" s="21" t="str">
         <f>B10</f>
-        <v>SELLER_ID</v>
+        <v>SELLER_UUID</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>IF(C26&lt;&gt;"",",","")</f>
@@ -2355,7 +2349,7 @@
       </c>
       <c r="C28" s="23" t="str">
         <f>C10</f>
-        <v>USER</v>
+        <v>SELLER</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
@@ -2366,7 +2360,7 @@
       <c r="B29" s="27"/>
       <c r="C29" s="33" t="str">
         <f>D10</f>
-        <v>USER_ID</v>
+        <v>SELLER_UUID</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>IF(C30&lt;&gt;"",",","")</f>
